--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -43,16 +43,16 @@
     <t>{{saved}}</t>
   </si>
   <si>
-    <t>DROP TABLE test; CREATE TABLE test (first varchar(20));</t>
-  </si>
-  <si>
-    <t>INSERT INTO test(first) VALUES('test');</t>
+    <t>DROP TABLE test; CREATE TABLE test (first varchar(20), second integer);</t>
+  </si>
+  <si>
+    <t>INSERT INTO test(first, second) VALUES('test', 34);</t>
   </si>
   <si>
     <t>SELECT * FROM test;</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test;34</t>
   </si>
 </sst>
 </file>
@@ -156,17 +156,17 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>sql</t>
   </si>
@@ -46,13 +46,17 @@
     <t>DROP TABLE test; CREATE TABLE test (first varchar(20), second integer);</t>
   </si>
   <si>
-    <t>INSERT INTO test(first, second) VALUES('test', 34);</t>
+    <t>INSERT INTO test(first, second) VALUES('test1', 12);</t>
+  </si>
+  <si>
+    <t>INSERT INTO test(first, second) VALUES('test2', 34);</t>
   </si>
   <si>
     <t>SELECT * FROM test;</t>
   </si>
   <si>
-    <t>test;34</t>
+    <t>test1;12
+test2;34</t>
   </si>
 </sst>
 </file>
@@ -62,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -83,6 +87,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,13 +136,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,20 +166,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.24489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,19 +256,32 @@
       <c r="B9" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
